--- a/USCS-averageKxy-CoarseFractions.xlsx
+++ b/USCS-averageKxy-CoarseFractions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betebari\Documents\C2VSim_Texture\OSWCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88619D05-698E-4975-A276-0BBD49490480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046D196-95B1-4D77-9B4C-67227BFEC286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69694CEF-8F0D-4543-9025-6D80A972249C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69694CEF-8F0D-4543-9025-6D80A972249C}"/>
   </bookViews>
   <sheets>
     <sheet name="Freeze-Cherry-1979-Original" sheetId="4" r:id="rId1"/>
+    <sheet name="copy" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>Average Hydraulic Conductivity (ft/day)</t>
   </si>
@@ -327,6 +328,12 @@
   </si>
   <si>
     <t>Basalt young</t>
+  </si>
+  <si>
+    <t>DGRNT</t>
+  </si>
+  <si>
+    <t>Granite decomposed</t>
   </si>
 </sst>
 </file>
@@ -868,13 +875,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +887,10 @@
     <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -957,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <f>(C2+D2)/2</f>
+        <f t="shared" ref="E2:E41" si="0">(C2+D2)/2</f>
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
@@ -967,7 +971,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H2" s="2">
-        <f>(F2+G2)/2</f>
+        <f t="shared" ref="H2:H41" si="1">(F2+G2)/2</f>
         <v>1.6401640000000002E-2</v>
       </c>
       <c r="I2" s="2"/>
@@ -1004,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E41" si="0">(C3+D3)/2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F3" s="1">
@@ -1014,7 +1018,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H40" si="1">(F3+G3)/2</f>
+        <f t="shared" si="1"/>
         <v>1.6401640000000002E-2</v>
       </c>
       <c r="I3" s="2"/>
@@ -1071,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K41" si="2">(I4+J4)/2</f>
+        <f>(I4+J4)/2</f>
         <v>11.5</v>
       </c>
       <c r="L4" s="2">
@@ -1081,7 +1085,7 @@
         <v>1E-4</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N15" si="3">(L4+M4)/2</f>
+        <f t="shared" ref="N4:N15" si="2">(L4+M4)/2</f>
         <v>5.0500000000000001E-5</v>
       </c>
       <c r="O4" s="2">
@@ -1128,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
+        <f>(I5+J5)/2</f>
         <v>14</v>
       </c>
       <c r="L5" s="2">
@@ -1138,7 +1142,7 @@
         <v>1E-3</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="O5" s="2">
@@ -1190,7 +1194,7 @@
         <v>1E-4</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000001E-5</v>
       </c>
       <c r="O6" s="1">
@@ -1242,7 +1246,7 @@
         <v>1E-4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000001E-5</v>
       </c>
       <c r="O7" s="1">
@@ -1289,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f>(I8+J8)/2</f>
         <v>5.5</v>
       </c>
       <c r="L8" s="1">
@@ -1299,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="O8" s="1">
@@ -1351,7 +1355,7 @@
         <v>0.01</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0499999999999998E-3</v>
       </c>
       <c r="O9" s="1">
@@ -1398,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f>(I10+J10)/2</f>
         <v>7.5</v>
       </c>
       <c r="L10" s="1">
@@ -1408,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="O10" s="1">
@@ -1455,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f>(I11+J11)/2</f>
         <v>7.5</v>
       </c>
       <c r="L11" s="1">
@@ -1465,7 +1469,7 @@
         <v>0.01</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0499999999999998E-3</v>
       </c>
       <c r="O11" s="1">
@@ -1517,7 +1521,7 @@
         <v>0.01</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0499999999999998E-3</v>
       </c>
       <c r="O12" s="1">
@@ -1564,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f>(I13+J13)/2</f>
         <v>8.5</v>
       </c>
       <c r="L13" s="1">
@@ -1574,7 +1578,7 @@
         <v>1E-3</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="O13" s="1">
@@ -1621,7 +1625,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f>(I14+J14)/2</f>
         <v>15</v>
       </c>
       <c r="L14" s="1">
@@ -1631,7 +1635,7 @@
         <v>1E-3</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="O14" s="1">
@@ -1683,7 +1687,7 @@
         <v>1E-3</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0049999999999997E-4</v>
       </c>
       <c r="O15" s="1">
@@ -1777,7 +1781,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K17:K24" si="3">(I17+J17)/2</f>
         <v>20</v>
       </c>
       <c r="L17" s="1">
@@ -1787,7 +1791,7 @@
         <v>1E-4</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" ref="N17:N18" si="4">(L17+M17)/2</f>
+        <f>(L17+M17)/2</f>
         <v>5.0500000000000001E-5</v>
       </c>
       <c r="O17" s="1">
@@ -1834,7 +1838,7 @@
         <v>30</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L18" s="1">
@@ -1844,7 +1848,7 @@
         <v>1E-4</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="4"/>
+        <f>(L18+M18)/2</f>
         <v>5.0500000000000001E-5</v>
       </c>
       <c r="O18" s="1">
@@ -1854,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" ref="Q17:Q18" si="5">(O18+P18)/2</f>
+        <f>(O18+P18)/2</f>
         <v>0.50049999999999994</v>
       </c>
     </row>
@@ -1892,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="L19" s="1">
@@ -1949,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="L20" s="1">
@@ -1959,7 +1963,7 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20" si="6">(L20+M20)/2</f>
+        <f>(L20+M20)/2</f>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="O20" s="1">
@@ -2006,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="L21" s="8"/>
@@ -2054,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="L22" s="8"/>
@@ -2102,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="L23" s="1">
@@ -2112,7 +2116,7 @@
         <v>1E-3</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23" si="7">(L23+M23)/2</f>
+        <f>(L23+M23)/2</f>
         <v>5.0049999999999997E-4</v>
       </c>
       <c r="O23" s="1">
@@ -2159,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L24" s="8"/>
@@ -2250,7 +2254,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f>(I26+J26)/2</f>
         <v>10</v>
       </c>
       <c r="L26" s="8"/>
@@ -2298,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f>(I27+J27)/2</f>
         <v>3</v>
       </c>
       <c r="L27" s="8"/>
@@ -2346,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f>(I28+J28)/2</f>
         <v>15</v>
       </c>
       <c r="L28" s="1">
@@ -2356,7 +2360,7 @@
         <v>1E-3</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28" si="8">(L28+M28)/2</f>
+        <f>(L28+M28)/2</f>
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="O28" s="1">
@@ -2403,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f>(I29+J29)/2</f>
         <v>3.5</v>
       </c>
       <c r="L29" s="1"/>
@@ -2464,7 +2468,7 @@
         <v>1E-3</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" ref="N30" si="9">(L30+M30)/2</f>
+        <f>(L30+M30)/2</f>
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="O30" s="12">
@@ -2525,7 +2529,7 @@
         <v>1.4173228345000001E-5</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ref="Q31" si="10">(O31+P31)/2</f>
+        <f>(O31+P31)/2</f>
         <v>7.1220472433625006E-6</v>
       </c>
     </row>
@@ -2563,7 +2567,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f>(I32+J32)/2</f>
         <v>10</v>
       </c>
       <c r="L32" s="8"/>
@@ -2654,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f>(I34+J34)/2</f>
         <v>22.5</v>
       </c>
       <c r="L34" s="1">
@@ -2664,7 +2668,7 @@
         <v>0.01</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34" si="11">(L34+M34)/2</f>
+        <f>(L34+M34)/2</f>
         <v>5.0499999999999998E-3</v>
       </c>
       <c r="O34" s="1">
@@ -2763,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f>(I36+J36)/2</f>
         <v>3</v>
       </c>
       <c r="L36" s="1"/>
@@ -2816,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f>(I37+J37)/2</f>
         <v>15</v>
       </c>
       <c r="L37" s="1"/>
@@ -2911,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f>(I39+J39)/2</f>
         <v>3</v>
       </c>
       <c r="L39" s="8"/>
@@ -2969,7 +2973,7 @@
         <v>1.4173228345E-2</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" ref="Q40" si="12">(O40+P40)/2</f>
+        <f>(O40+P40)/2</f>
         <v>7.1574803142250001E-3</v>
       </c>
     </row>
@@ -2997,7 +3001,7 @@
         <v>5.6692913380000003E-5</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" ref="H41" si="13">(F41+G41)/2</f>
+        <f t="shared" si="1"/>
         <v>2.8350708658503503E-5</v>
       </c>
       <c r="I41" s="1">
@@ -3007,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="2"/>
+        <f>(I41+J41)/2</f>
         <v>0.505</v>
       </c>
       <c r="L41" s="1"/>
@@ -3022,6 +3026,1027 @@
         <v>1E-3</v>
       </c>
       <c r="Q41" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42" si="4">(C42+D42)/2</f>
+        <v>90</v>
+      </c>
+      <c r="F42" s="11">
+        <v>85.039400000000001</v>
+      </c>
+      <c r="G42" s="12">
+        <v>350</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" ref="H42" si="5">(F42+G42)/2</f>
+        <v>217.5197</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
+        <v>19</v>
+      </c>
+      <c r="L42" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="6">(L42+M42)/2</f>
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EACD8A-A248-4925-832B-2924AAED24FE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.6401640000000002E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3.49E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.6401640000000002E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.3127999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6563999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>90</v>
+      </c>
+      <c r="D6" s="10">
+        <v>217.5197</v>
+      </c>
+      <c r="E6" s="1">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10">
+        <v>167.5197</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.6401640000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.8346414999999996</v>
+      </c>
+      <c r="E9" s="12">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.6401640000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.16401640000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.8039999999999998</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.6563999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.110199999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.282</v>
+      </c>
+      <c r="E15" s="12">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0049999999999997E-4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="E16" s="12">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2">
+        <v>250</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.50049999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.64164E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G21" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
+        <v>275</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.0049999999999997E-4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2">
+        <v>105</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.9530393694668997E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="13">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2.8350708658503503E-5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>300</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F29" s="13">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27</v>
+      </c>
+      <c r="F31" s="13">
+        <v>5.0500000000000001E-5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.1220472433625006E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1">
+        <v>80</v>
+      </c>
+      <c r="D32" s="10">
+        <v>42.520818893267595</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G32" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2">
+        <v>16.416399999999999</v>
+      </c>
+      <c r="E33" s="12">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.64164E-3</v>
+      </c>
+      <c r="E35" s="12">
+        <v>26</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.4314960628449995E-7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="13">
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1.4314960628450001E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.164164</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2.3E-5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2.8350708658503503E-5</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="F38" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G38" s="14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.64164E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G39" s="14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.431496062845E-2</v>
+      </c>
+      <c r="E40" s="12">
+        <v>14</v>
+      </c>
+      <c r="F40" s="13">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G40" s="12">
+        <v>7.1574803142250001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2.8350708658503503E-5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="F41" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G41" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
